--- a/Handover Doc.xlsx
+++ b/Handover Doc.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="172.17.45.162_ft4cme1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CHI-AUR-GLBT-01_ft4cme1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,15 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Hostname:</t>
+  </si>
+  <si>
+    <t>CHI-AUR-GLBT-01</t>
+  </si>
+  <si>
+    <t>Network IP:</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>eth3</t>
+  </si>
+  <si>
+    <t>172.17.45.162</t>
+  </si>
+  <si>
+    <t>eth2.300</t>
+  </si>
+  <si>
+    <t>172.19.165.11</t>
+  </si>
+  <si>
+    <t>eth0</t>
+  </si>
+  <si>
+    <t>172.18.165.81</t>
   </si>
 </sst>
 </file>
@@ -359,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,16 +391,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3"/>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Handover Doc.xlsx
+++ b/Handover Doc.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="172.17.45.162_ft4cme1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
